--- a/Examples/ParticipationAnalysis/ModalConfig_IEEE_14Bus_Cyprus_test.xlsx
+++ b/Examples/ParticipationAnalysis/ModalConfig_IEEE_14Bus_Cyprus_test.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems-2\Examples\ParticipationAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA21A49-D0C0-4802-B567-53BD84F7EEA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418A187C-2706-41DD-9CBE-A666098D1BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{9ED4A44B-10E7-45E8-AE16-14F27C619C20}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{9ED4A44B-10E7-45E8-AE16-14F27C619C20}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="6" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="7" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
+    <sheet name="State-PF" sheetId="10" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="11" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1802,9 +1801,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2118,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADFD8E6-46F5-4DFF-BD46-255388BAB553}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C11E174-2011-427C-8A86-5955177CA49C}">
   <dimension ref="A1:G293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7060,7 +7058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDADF932-16B4-426C-8447-D7A576783018}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0C4F1B-AC06-4167-8EA5-53A2F5ECE8AD}">
   <dimension ref="A1:L294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10369,17 +10367,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C9E9AC-694F-44FC-941F-B1345B455E1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BA1E24-FFF2-4A89-BA35-67E804CAD735}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -10404,7 +10399,7 @@
         <v>572</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -10412,7 +10407,7 @@
         <v>573</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10428,7 +10423,7 @@
         <v>575</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -10437,439 +10432,6 @@
       </c>
       <c r="B11">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D784AE28-6398-4877-8059-3D9981A872DF}">
-  <dimension ref="A1:D35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0.118372315015258</v>
-      </c>
-      <c r="B1">
-        <f>ABS(A1)</f>
-        <v>0.118372315015258</v>
-      </c>
-      <c r="D1">
-        <v>0.78714405659846098</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>-0.134085737136688</v>
-      </c>
-      <c r="B2">
-        <f t="shared" ref="B2:B34" si="0">ABS(A2)</f>
-        <v>0.134085737136688</v>
-      </c>
-      <c r="D2">
-        <v>2.65078268274773E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5.4931236620706397E-2</v>
-      </c>
-      <c r="B3">
-        <f t="shared" si="0"/>
-        <v>5.4931236620706397E-2</v>
-      </c>
-      <c r="D3">
-        <v>5.0478912742693401E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>7.72109241815742E-2</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>7.72109241815742E-2</v>
-      </c>
-      <c r="D4">
-        <v>2.17351788809764E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.117755920658296</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0.117755920658296</v>
-      </c>
-      <c r="D5">
-        <v>1.3493920270108701E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-0.13524385848423101</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>0.13524385848423101</v>
-      </c>
-      <c r="D6">
-        <v>2.0702262815870599E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-4.5394106045404198E-2</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>4.5394106045404198E-2</v>
-      </c>
-      <c r="D7">
-        <v>5.3121108184858504E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-6.8515001943735707E-2</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>6.8515001943735707E-2</v>
-      </c>
-      <c r="D8">
-        <v>2.0607352603251701E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-8.8265882280990395E-3</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>8.8265882280990395E-3</v>
-      </c>
-      <c r="D9">
-        <v>1.37660347286614E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3.1473669437631503E-2</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>3.1473669437631503E-2</v>
-      </c>
-      <c r="D10">
-        <v>4.6894288864965704E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.0371721935238399E-2</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>1.0371721935238399E-2</v>
-      </c>
-      <c r="D11">
-        <v>1.72347838357078E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1.24904628755732E-2</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>1.24904628755732E-2</v>
-      </c>
-      <c r="D12">
-        <v>2.7635006508124399E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3.6160637901342003E-2</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>3.6160637901342003E-2</v>
-      </c>
-      <c r="D13">
-        <v>6.4351784490835904E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3.6633708172827101E-2</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>3.6633708172827101E-2</v>
-      </c>
-      <c r="D14">
-        <v>6.8879787977894503E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>-4.0605678099621401E-2</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>4.0605678099621401E-2</v>
-      </c>
-      <c r="D15">
-        <v>5.3238571808003499E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>-2.52751240788191E-2</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>2.52751240788191E-2</v>
-      </c>
-      <c r="D16">
-        <v>3.56581413304518E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>-1.7428183078415899E-2</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>1.7428183078415899E-2</v>
-      </c>
-      <c r="D17">
-        <v>2.5189506166122598E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>-8.1800843765880392E-3</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>8.1800843765880392E-3</v>
-      </c>
-      <c r="D18">
-        <v>1.3308582327848401E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>-3.03658156588855E-3</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>3.03658156588855E-3</v>
-      </c>
-      <c r="D19">
-        <v>6.8122482356627401E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>-2.5729811912821999E-3</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>2.5729811912821999E-3</v>
-      </c>
-      <c r="D20">
-        <v>2.7611588106633302E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>-4.4701450007749999E-3</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>4.4701450007749999E-3</v>
-      </c>
-      <c r="D21">
-        <v>5.4363543604504696E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2.72424120720457E-3</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>2.72424120720457E-3</v>
-      </c>
-      <c r="D22">
-        <v>5.2215268987139299E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>-1.4005969547680999E-3</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>1.4005969547680999E-3</v>
-      </c>
-      <c r="D23">
-        <v>3.8462039888362899E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>-1.0261605886044899E-3</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>1.0261605886044899E-3</v>
-      </c>
-      <c r="D24">
-        <v>1.22861340649926E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>-1.3745367317558399E-4</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>1.3745367317558399E-4</v>
-      </c>
-      <c r="D25" s="1">
-        <v>6.6759175327936904E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>-1.93928729383342E-4</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>1.93928729383342E-4</v>
-      </c>
-      <c r="D26" s="1">
-        <v>7.4146399748432399E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>-2.7537957534778002E-4</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>2.7537957534778002E-4</v>
-      </c>
-      <c r="D27">
-        <v>2.1303027776241901E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1.6205776816705399E-3</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>1.6205776816705399E-3</v>
-      </c>
-      <c r="D28">
-        <v>3.9740573350459298E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>-3.0872170134493299E-3</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>3.0872170134493299E-3</v>
-      </c>
-      <c r="D29">
-        <v>4.1245787150590799E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1.0220442474967501E-4</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>1.0220442474967501E-4</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1.51322214398158E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>5.0892449332158198E-5</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>5.0892449332158198E-5</v>
-      </c>
-      <c r="D31">
-        <v>1.1101481722213001E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>-8.7472022932231803E-5</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>8.7472022932231803E-5</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1.9858568959571099E-5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>8.6404058966935503E-6</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>8.6404058966935503E-6</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4.0242364297592001E-6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>-2.5056924549039301E-4</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>2.5056924549039301E-4</v>
-      </c>
-      <c r="D34" s="1">
-        <v>6.3106445186062604E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <f>SUM(B1:B34)</f>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="D35">
-        <f>SUM(D1:D34)</f>
-        <v>1.0000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/ParticipationAnalysis/ModalConfig_IEEE_14Bus_Cyprus_test.xlsx
+++ b/Examples/ParticipationAnalysis/ModalConfig_IEEE_14Bus_Cyprus_test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplex-Power-Systems-2\Examples\ParticipationAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418A187C-2706-41DD-9CBE-A666098D1BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB1EBA5-2734-4C94-A1FE-C9717234222D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{9ED4A44B-10E7-45E8-AE16-14F27C619C20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9ED4A44B-10E7-45E8-AE16-14F27C619C20}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="10" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="11" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="12" r:id="rId3"/>
+    <sheet name="State-PF" sheetId="19" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="20" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="21" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2116,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C11E174-2011-427C-8A86-5955177CA49C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543101C4-489D-4594-88DE-73299C4A7BA1}">
   <dimension ref="A1:G293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7058,14 +7058,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0C4F1B-AC06-4167-8EA5-53A2F5ECE8AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CAC62A-8601-4C9E-B5AE-B595CB3D6739}">
   <dimension ref="A1:L294"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:L294"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7146,7 +7150,7 @@
         <v>7</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7256,7 +7260,7 @@
         <v>155</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -9500,7 +9504,7 @@
         <v>436</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="7:9" x14ac:dyDescent="0.25">
@@ -10367,11 +10371,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BA1E24-FFF2-4A89-BA35-67E804CAD735}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F9E4E2-4878-4F18-BEB8-7C1FE3B63B9D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10399,7 +10403,7 @@
         <v>572</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -10407,7 +10411,7 @@
         <v>573</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
